--- a/Structures/Structures-Loads Table.xlsx
+++ b/Structures/Structures-Loads Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanm\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanm\3D Objects\ENAE484 Stuff\Habitat\Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA2D8368-40A0-4E61-AAAA-7594F43092F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32908B88-1799-4485-B818-E3232804BB90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{826E1B2E-86E3-4550-97AA-4F7FA3EC2A9E}"/>
+    <workbookView xWindow="15540" yWindow="5028" windowWidth="7500" windowHeight="6000" xr2:uid="{826E1B2E-86E3-4550-97AA-4F7FA3EC2A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Structural Element</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Interior 2nd Floor</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -417,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403B0854-0400-4673-866C-7089FF582884}">
   <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,6 +477,9 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Structures/Structures-Loads Table.xlsx
+++ b/Structures/Structures-Loads Table.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanm\3D Objects\ENAE484 Stuff\Habitat\Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32908B88-1799-4485-B818-E3232804BB90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9747A3-B737-4968-B838-26A92CC124FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="5028" windowWidth="7500" windowHeight="6000" xr2:uid="{826E1B2E-86E3-4550-97AA-4F7FA3EC2A9E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{826E1B2E-86E3-4550-97AA-4F7FA3EC2A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,29 +32,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Structural Element</t>
   </si>
   <si>
-    <t xml:space="preserve">Launch Loads </t>
-  </si>
-  <si>
-    <t>Deployed Loads</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
-    <t>Tensile Strength</t>
-  </si>
-  <si>
     <t>Rigid Module Shell</t>
   </si>
   <si>
-    <t>Support Legs</t>
-  </si>
-  <si>
     <t>Interior Floor</t>
   </si>
   <si>
@@ -66,15 +55,60 @@
     <t>Interior 2nd Floor</t>
   </si>
   <si>
-    <t>test</t>
+    <t>Falcon Heavy First Stage Thrust:</t>
+  </si>
+  <si>
+    <t>7.6 MN</t>
+  </si>
+  <si>
+    <t>Falcon Heavy Second Stage Thrust:</t>
+  </si>
+  <si>
+    <t>934 kN</t>
+  </si>
+  <si>
+    <t>Mass (kg)</t>
+  </si>
+  <si>
+    <t>Launch Loads (N)</t>
+  </si>
+  <si>
+    <t>Deployed Loads (N)</t>
+  </si>
+  <si>
+    <t>Tensile Strength (Pa)</t>
+  </si>
+  <si>
+    <t>Support Structure (legs,etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunar Gravity: </t>
+  </si>
+  <si>
+    <t>Assumed gs during launch</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Earth 1g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,8 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,70 +454,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403B0854-0400-4673-866C-7089FF582884}">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3">
+        <v>13000</v>
+      </c>
+      <c r="C3">
+        <f>$B$14*$B$15*B3</f>
+        <v>382590</v>
+      </c>
+      <c r="D3">
+        <f>B3*$B$13</f>
+        <v>21060</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>276000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C8" si="0">$B$14*$B$15*B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>D3/4</f>
+        <v>5265</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>276000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>29430</v>
+      </c>
+      <c r="D8">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>9.81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Structures/Structures-Loads Table.xlsx
+++ b/Structures/Structures-Loads Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seanm\3D Objects\ENAE484 Stuff\Habitat\Structures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blizz\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9747A3-B737-4968-B838-26A92CC124FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89DCAA03-42C5-42A7-A81C-E1C66E43390F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{826E1B2E-86E3-4550-97AA-4F7FA3EC2A9E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,17 +31,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Structural Element</t>
   </si>
   <si>
+    <t xml:space="preserve">Launch Loads </t>
+  </si>
+  <si>
+    <t>Deployed Loads</t>
+  </si>
+  <si>
     <t>Material</t>
   </si>
   <si>
     <t>Rigid Module Shell</t>
   </si>
   <si>
+    <t>Support Legs</t>
+  </si>
+  <si>
     <t>Interior Floor</t>
   </si>
   <si>
@@ -55,50 +63,84 @@
     <t>Interior 2nd Floor</t>
   </si>
   <si>
-    <t>Falcon Heavy First Stage Thrust:</t>
-  </si>
-  <si>
-    <t>7.6 MN</t>
-  </si>
-  <si>
-    <t>Falcon Heavy Second Stage Thrust:</t>
-  </si>
-  <si>
-    <t>934 kN</t>
-  </si>
-  <si>
-    <t>Mass (kg)</t>
-  </si>
-  <si>
-    <t>Launch Loads (N)</t>
-  </si>
-  <si>
-    <t>Deployed Loads (N)</t>
-  </si>
-  <si>
-    <t>Tensile Strength (Pa)</t>
-  </si>
-  <si>
-    <t>Support Structure (legs,etc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunar Gravity: </t>
-  </si>
-  <si>
-    <t>Assumed gs during launch</t>
-  </si>
-  <si>
-    <t>Aluminum</t>
-  </si>
-  <si>
-    <t>Earth 1g</t>
+    <t>Al-Li alloy 8090</t>
+  </si>
+  <si>
+    <t>2.54 g/cm³</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Tensile strength</t>
+  </si>
+  <si>
+    <t>450 MPa</t>
+  </si>
+  <si>
+    <t>Yield strength</t>
+  </si>
+  <si>
+    <t>370 MPa</t>
+  </si>
+  <si>
+    <t>Youngs modulus</t>
+  </si>
+  <si>
+    <t>77 Gpa</t>
+  </si>
+  <si>
+    <t>Shear strength</t>
+  </si>
+  <si>
+    <t>270 MPa</t>
+  </si>
+  <si>
+    <t>Pistons x4</t>
+  </si>
+  <si>
+    <r>
+      <t>gravity (m/s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2)</t>
+    </r>
+  </si>
+  <si>
+    <t>pressure (kPa)</t>
+  </si>
+  <si>
+    <t>acc/vib (g)</t>
+  </si>
+  <si>
+    <t>person (N)</t>
+  </si>
+  <si>
+    <t>folding floor (N)</t>
+  </si>
+  <si>
+    <t>equipment? (N)</t>
+  </si>
+  <si>
+    <t>equipment (N)</t>
+  </si>
+  <si>
+    <t>regolith (kPa)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,7 +150,20 @@
     </font>
     <font>
       <b/>
-      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -132,14 +187,240 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,166 +735,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403B0854-0400-4673-866C-7089FF582884}">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="22">
+        <v>6</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="22">
+        <v>70</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1.62</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>13000</v>
-      </c>
-      <c r="C3">
-        <f>$B$14*$B$15*B3</f>
-        <v>382590</v>
-      </c>
-      <c r="D3">
-        <f>B3*$B$13</f>
-        <v>21060</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="22">
+        <f>((1.5*30)/100*E4)*10</f>
+        <v>7.2900000000000009</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="23"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2">
-        <v>276000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C8" si="0">$B$14*$B$15*B4</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>D3/4</f>
-        <v>5265</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
-        <v>276000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>29430</v>
-      </c>
-      <c r="D8">
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="22">
+        <v>6</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="22">
+        <f>80*E4</f>
+        <v>129.60000000000002</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="22">
+        <f>1000*E4</f>
+        <v>1620</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1.62</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="22">
+        <f>50*E4</f>
+        <v>81</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="31">
+        <v>6</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="31">
+        <v>129.6</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="22">
+        <f>1000*E4</f>
+        <v>1620</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1.62</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="23">
+        <v>81</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>9.81</v>
-      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>